--- a/final_data_pipeline/output/311422_elec_options.xlsx
+++ b/final_data_pipeline/output/311422_elec_options.xlsx
@@ -1421,7 +1421,7 @@
         <v>56</v>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE9">
         <v>8000</v>
@@ -1516,7 +1516,7 @@
         <v>56</v>
       </c>
       <c r="AD10">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE10">
         <v>8000</v>
@@ -1611,7 +1611,7 @@
         <v>56</v>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE11">
         <v>8000</v>
@@ -1706,7 +1706,7 @@
         <v>56</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1801,7 +1801,7 @@
         <v>56</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -1896,7 +1896,7 @@
         <v>56</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -1991,7 +1991,7 @@
         <v>56</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2086,7 +2086,7 @@
         <v>56</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE16">
         <v>8000</v>
@@ -2181,7 +2181,7 @@
         <v>56</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE17">
         <v>8000</v>
@@ -2276,7 +2276,7 @@
         <v>56</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE18">
         <v>8000</v>
@@ -2371,7 +2371,7 @@
         <v>56</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE19">
         <v>8000</v>
@@ -2466,7 +2466,7 @@
         <v>56</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE20">
         <v>8000</v>
@@ -2561,7 +2561,7 @@
         <v>56</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE21">
         <v>8000</v>
@@ -2656,7 +2656,7 @@
         <v>56</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE22">
         <v>8000</v>
@@ -2751,7 +2751,7 @@
         <v>56</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE23">
         <v>8000</v>
@@ -2846,7 +2846,7 @@
         <v>56</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE24">
         <v>8000</v>
@@ -2941,7 +2941,7 @@
         <v>56</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE25">
         <v>8000</v>
@@ -3036,7 +3036,7 @@
         <v>56</v>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE26">
         <v>8000</v>
@@ -3131,7 +3131,7 @@
         <v>56</v>
       </c>
       <c r="AD27">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE27">
         <v>8000</v>
@@ -3226,7 +3226,7 @@
         <v>56</v>
       </c>
       <c r="AD28">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE28">
         <v>8000</v>
@@ -3321,7 +3321,7 @@
         <v>56</v>
       </c>
       <c r="AD29">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE29">
         <v>8000</v>
@@ -3416,7 +3416,7 @@
         <v>56</v>
       </c>
       <c r="AD30">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE30">
         <v>8000</v>
@@ -3511,7 +3511,7 @@
         <v>56</v>
       </c>
       <c r="AD31">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE31">
         <v>8000</v>
@@ -3606,7 +3606,7 @@
         <v>56</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE32">
         <v>8000</v>
@@ -3701,7 +3701,7 @@
         <v>56</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE33">
         <v>8000</v>
@@ -3796,7 +3796,7 @@
         <v>56</v>
       </c>
       <c r="AD34">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE34">
         <v>8000</v>
@@ -3891,7 +3891,7 @@
         <v>56</v>
       </c>
       <c r="AD35">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE35">
         <v>8000</v>
@@ -3986,7 +3986,7 @@
         <v>56</v>
       </c>
       <c r="AD36">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="AE36">
         <v>8000</v>
